--- a/src/test/resources/data_sheet.xlsx
+++ b/src/test/resources/data_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakir\IdeaProjects\mycucumberproject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F7A9C4-C4EF-450A-B326-7AD707BF93B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBED265B-892F-4CB4-9349-081E6BA20440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="2370" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28770" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user_data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>first_name</t>
   </si>
@@ -143,18 +143,6 @@
   </si>
   <si>
     <t>johnson</t>
-  </si>
-  <si>
-    <t>52345df</t>
-  </si>
-  <si>
-    <t>5245dfd</t>
-  </si>
-  <si>
-    <t>9811df</t>
-  </si>
-  <si>
-    <t>5188df</t>
   </si>
 </sst>
 </file>
@@ -268,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -283,15 +271,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -511,10 +493,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -555,10 +537,10 @@
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="10">
+        <v>52345</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="9">
@@ -578,10 +560,10 @@
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="10">
+        <v>5245</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="9">
@@ -601,10 +583,10 @@
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="10">
+        <v>9811</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="9">
@@ -624,22 +606,15 @@
       <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="10">
+        <v>5188</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="9">
         <v>800000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E6" s="12"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E7" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
